--- a/db/NCCU-411-InTheatersToday.xlsx
+++ b/db/NCCU-411-InTheatersToday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD5C2F8-4529-F543-9F8C-F28BF5C3FC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40C21C7-8983-F648-9E49-F95593A870EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6260" yWindow="1380" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>美國</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,22 @@
   </si>
   <si>
     <t>NCCU-31-NM901.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/NCCU-31-Movie/NCCU-31-902.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCCU-31-NM902.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙丘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dune</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,13 +469,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AA310-9C39-A04D-BB87-9521EAB5B98C}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -521,6 +537,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>902</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/NCCU-411-InTheatersToday.xlsx
+++ b/db/NCCU-411-InTheatersToday.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40C21C7-8983-F648-9E49-F95593A870EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461A9B9F-D62D-144C-9F80-5F586BC0429E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="1380" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="13700" yWindow="14340" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="今日電影" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>美國</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,28 @@
   </si>
   <si>
     <t>Dune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCCU-31-NM903.html</t>
+  </si>
+  <si>
+    <t>NCCU-31-NM904.html</t>
+  </si>
+  <si>
+    <t>為你找個家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nowhere Special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/NCCU-31-Movie/NCCU-31-903.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/NCCU-31-Movie/NCCU-31-904.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AA310-9C39-A04D-BB87-9521EAB5B98C}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -560,6 +582,46 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>903</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>904</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/NCCU-411-InTheatersToday.xlsx
+++ b/db/NCCU-411-InTheatersToday.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461A9B9F-D62D-144C-9F80-5F586BC0429E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB52F64-9F41-2043-9092-EBD0345A3E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13700" yWindow="14340" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="12940" yWindow="5720" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="今日電影" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>美國</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,14 @@
   </si>
   <si>
     <t>fig/NCCU-31-Movie/NCCU-31-904.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者理查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>King Richard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +505,7 @@
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -615,6 +623,12 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
       <c r="F5" t="s">
         <v>23</v>
       </c>

--- a/db/NCCU-411-InTheatersToday.xlsx
+++ b/db/NCCU-411-InTheatersToday.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB52F64-9F41-2043-9092-EBD0345A3E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA232BC-F0D9-5540-807C-5CE9DD3AA9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12940" yWindow="5720" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="12880" yWindow="5720" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="今日電影" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>美國</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,22 +89,6 @@
   </si>
   <si>
     <t>NCCU-31-NM901.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/NCCU-31-Movie/NCCU-31-902.jpeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCCU-31-NM902.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙丘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dune</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -499,13 +483,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AA310-9C39-A04D-BB87-9521EAB5B98C}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -569,7 +553,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -584,15 +568,15 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -607,33 +591,10 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>904</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/db/NCCU-411-InTheatersToday.xlsx
+++ b/db/NCCU-411-InTheatersToday.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA232BC-F0D9-5540-807C-5CE9DD3AA9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12C2BFD-2869-B845-A90D-934F776F2899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12880" yWindow="5720" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="12840" yWindow="5720" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="今日電影" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>美國</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,20 @@
   </si>
   <si>
     <t>King Richard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/NCCU-31-Movie/NCCU-31-905.jpg</t>
+  </si>
+  <si>
+    <t>NCCU-31-NM905.html</t>
+  </si>
+  <si>
+    <t>無暇赴死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Time to Die</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,13 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AA310-9C39-A04D-BB87-9521EAB5B98C}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -597,6 +611,29 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>905</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/NCCU-411-InTheatersToday.xlsx
+++ b/db/NCCU-411-InTheatersToday.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12C2BFD-2869-B845-A90D-934F776F2899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E3F394-9844-7444-A820-1C700E2F687E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="5720" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="5200" yWindow="6840" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="今日電影" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>美國</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今日電影</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,6 +129,26 @@
   </si>
   <si>
     <t>No Time to Die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimy.app/vod/158384.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://123moviesworld.xyz/en/movie/614917/king-richard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ottplay.cc/video/188065-1-1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gimyvod.cc/vod-read-id-111747.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,6 +167,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -174,18 +199,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -503,7 +535,7 @@
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -539,7 +571,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -550,19 +582,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -573,19 +608,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -596,19 +634,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -619,23 +660,32 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
-        <v>23</v>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{86D5BFCC-082A-A24C-A9E6-41CEA59BDC76}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{6231ED10-E9A1-FD47-AC41-5E1DC36432F5}"/>
+    <hyperlink ref="H3" r:id="rId3" xr:uid="{144E4D43-5541-454B-8A75-4589345F64EB}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{347966DF-EB8D-A04C-BA25-ABF16B4757D2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db/NCCU-411-InTheatersToday.xlsx
+++ b/db/NCCU-411-InTheatersToday.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E3F394-9844-7444-A820-1C700E2F687E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE70E8A-3338-7E4D-8E9E-350F65FCD6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="6840" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="5200" yWindow="5720" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="今日電影" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>美國</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,24 @@
   </si>
   <si>
     <t>https://www.gimyvod.cc/vod-read-id-111747.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimy.one/video/201615553.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCCU-31-NM906.html</t>
+  </si>
+  <si>
+    <t>fig/NCCU-31-Movie/NCCU-31-906.jpg</t>
+  </si>
+  <si>
+    <t>芬奇的旅程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,13 +547,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AA310-9C39-A04D-BB87-9521EAB5B98C}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -678,6 +696,32 @@
         <v>29</v>
       </c>
     </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>906</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -685,6 +729,7 @@
     <hyperlink ref="H4" r:id="rId2" xr:uid="{6231ED10-E9A1-FD47-AC41-5E1DC36432F5}"/>
     <hyperlink ref="H3" r:id="rId3" xr:uid="{144E4D43-5541-454B-8A75-4589345F64EB}"/>
     <hyperlink ref="H5" r:id="rId4" xr:uid="{347966DF-EB8D-A04C-BA25-ABF16B4757D2}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{F40A738E-C933-6740-9315-C26993F98EA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
